--- a/Output/PBL/Customer/Air_Force/Air_Force_Contracts.xlsx
+++ b/Output/PBL/Customer/Air_Force/Air_Force_Contracts.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Veh" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Price" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PSR" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -169,15 +170,28 @@
   </si>
   <si>
     <t xml:space="preserve">FP-Incentive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R&amp;D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -213,10 +227,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3514,4 +3529,824 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V1" t="s">
+        <v>10</v>
+      </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>1127793</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>128605130</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>207367642</v>
+      </c>
+      <c r="Q2" s="3" t="n">
+        <v>257977679</v>
+      </c>
+      <c r="R2" s="3" t="n">
+        <v>211445723</v>
+      </c>
+      <c r="S2" s="3" t="n">
+        <v>258796896</v>
+      </c>
+      <c r="T2" s="3" t="n">
+        <v>356770013</v>
+      </c>
+      <c r="U2" s="3" t="n">
+        <v>330245487</v>
+      </c>
+      <c r="V2" s="3" t="n">
+        <v>326701888.3015</v>
+      </c>
+      <c r="W2" s="3" t="n">
+        <v>438484453.0985</v>
+      </c>
+      <c r="X2" s="3" t="n">
+        <v>731913616.4899</v>
+      </c>
+      <c r="Y2" s="3" t="n">
+        <v>469816795.0259</v>
+      </c>
+      <c r="Z2" s="3" t="n">
+        <v>436386986.3894</v>
+      </c>
+      <c r="AA2" s="3" t="n">
+        <v>1504373359.0538</v>
+      </c>
+      <c r="AB2" s="3" t="n">
+        <v>1541157246.5474</v>
+      </c>
+      <c r="AC2" s="3" t="n">
+        <v>958214617.9085</v>
+      </c>
+      <c r="AD2" s="3" t="n">
+        <v>1116151967.6563</v>
+      </c>
+      <c r="AE2" s="3" t="n">
+        <v>660783700.5195</v>
+      </c>
+      <c r="AF2" s="3" t="n">
+        <v>180724750.4325</v>
+      </c>
+      <c r="AG2" s="3" t="n">
+        <v>138188870.5596</v>
+      </c>
+      <c r="AH2" s="3" t="n">
+        <v>90474598.3451</v>
+      </c>
+      <c r="AI2" s="3" t="n">
+        <v>276897322.0519</v>
+      </c>
+      <c r="AJ2" s="3" t="n">
+        <v>57106573.4664</v>
+      </c>
+      <c r="AK2" s="3" t="n">
+        <v>91385099.5505</v>
+      </c>
+      <c r="AL2" s="3" t="n">
+        <v>98400731.6499</v>
+      </c>
+      <c r="AM2" s="3" t="n">
+        <v>70355598.95</v>
+      </c>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3" t="n">
+        <v>5352275</v>
+      </c>
+      <c r="S3" s="3" t="n">
+        <v>7776271</v>
+      </c>
+      <c r="T3" s="3" t="n">
+        <v>5526320</v>
+      </c>
+      <c r="U3" s="3" t="n">
+        <v>1117048</v>
+      </c>
+      <c r="V3" s="3" t="n">
+        <v>1029250.8544</v>
+      </c>
+      <c r="W3" s="3" t="n">
+        <v>3543675.1922</v>
+      </c>
+      <c r="X3" s="3" t="n">
+        <v>4341185.2738</v>
+      </c>
+      <c r="Y3" s="3" t="n">
+        <v>1776379.6722</v>
+      </c>
+      <c r="Z3" s="3" t="n">
+        <v>3317308.9668</v>
+      </c>
+      <c r="AA3" s="3" t="n">
+        <v>1470710.279</v>
+      </c>
+      <c r="AB3" s="3" t="n">
+        <v>156151643.02</v>
+      </c>
+      <c r="AC3" s="3" t="n">
+        <v>177930445</v>
+      </c>
+      <c r="AD3" s="3" t="n">
+        <v>233816255.1</v>
+      </c>
+      <c r="AE3" s="3" t="n">
+        <v>279697577.75</v>
+      </c>
+      <c r="AF3" s="3" t="n">
+        <v>163348120</v>
+      </c>
+      <c r="AG3" s="3" t="n">
+        <v>234781718</v>
+      </c>
+      <c r="AH3" s="3" t="n">
+        <v>309055557</v>
+      </c>
+      <c r="AI3" s="3" t="n">
+        <v>316770151.12</v>
+      </c>
+      <c r="AJ3" s="3" t="n">
+        <v>173751583.82</v>
+      </c>
+      <c r="AK3" s="3" t="n">
+        <v>40957944.99</v>
+      </c>
+      <c r="AL3" s="3" t="n">
+        <v>60628596.92</v>
+      </c>
+      <c r="AM3" s="3" t="n">
+        <v>24432514</v>
+      </c>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <f>M4</f>
+      </c>
+      <c r="M4" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="n">
+        <v>79283841</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>158096818</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>119957399</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>188583780</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>220702406</v>
+      </c>
+      <c r="T4" s="3" t="n">
+        <v>239721322</v>
+      </c>
+      <c r="U4" s="3" t="n">
+        <v>471062581</v>
+      </c>
+      <c r="V4" s="3" t="n">
+        <v>686375998.4428</v>
+      </c>
+      <c r="W4" s="3" t="n">
+        <v>655032000.5704</v>
+      </c>
+      <c r="X4" s="3" t="n">
+        <v>792875992.4366</v>
+      </c>
+      <c r="Y4" s="3" t="n">
+        <v>1068531165.0987</v>
+      </c>
+      <c r="Z4" s="3" t="n">
+        <v>1012460784.242</v>
+      </c>
+      <c r="AA4" s="3" t="n">
+        <v>2945205135.7952</v>
+      </c>
+      <c r="AB4" s="3" t="n">
+        <v>3289593409.475</v>
+      </c>
+      <c r="AC4" s="3" t="n">
+        <v>3426005648.1824</v>
+      </c>
+      <c r="AD4" s="3" t="n">
+        <v>3008839096.8863</v>
+      </c>
+      <c r="AE4" s="3" t="n">
+        <v>3129396795.6053</v>
+      </c>
+      <c r="AF4" s="3" t="n">
+        <v>2243439778.8998</v>
+      </c>
+      <c r="AG4" s="3" t="n">
+        <v>1622829668.1816</v>
+      </c>
+      <c r="AH4" s="3" t="n">
+        <v>1432123054.896</v>
+      </c>
+      <c r="AI4" s="3" t="n">
+        <v>1320752128.3319</v>
+      </c>
+      <c r="AJ4" s="3" t="n">
+        <v>1413396897.9386</v>
+      </c>
+      <c r="AK4" s="3" t="n">
+        <v>69446385.4419</v>
+      </c>
+      <c r="AL4" s="3" t="n">
+        <v>182771772.4836</v>
+      </c>
+      <c r="AM4" s="3" t="n">
+        <v>63298044.15</v>
+      </c>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <f>M5</f>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="3" t="str">
+        <f>Sum(N2:N4)</f>
+      </c>
+      <c r="O5" s="3" t="str">
+        <f>Sum(O2:O4)</f>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>Sum(P2:P4)</f>
+      </c>
+      <c r="Q5" s="3" t="str">
+        <f>Sum(Q2:Q4)</f>
+      </c>
+      <c r="R5" s="3" t="str">
+        <f>Sum(R2:R4)</f>
+      </c>
+      <c r="S5" s="3" t="str">
+        <f>Sum(S2:S4)</f>
+      </c>
+      <c r="T5" s="3" t="str">
+        <f>Sum(T2:T4)</f>
+      </c>
+      <c r="U5" s="3" t="str">
+        <f>Sum(U2:U4)</f>
+      </c>
+      <c r="V5" s="3" t="str">
+        <f>Sum(V2:V4)</f>
+      </c>
+      <c r="W5" s="3" t="str">
+        <f>Sum(W2:W4)</f>
+      </c>
+      <c r="X5" s="3" t="str">
+        <f>Sum(X2:X4)</f>
+      </c>
+      <c r="Y5" s="3" t="str">
+        <f>Sum(Y2:Y4)</f>
+      </c>
+      <c r="Z5" s="3" t="str">
+        <f>Sum(Z2:Z4)</f>
+      </c>
+      <c r="AA5" s="3" t="str">
+        <f>Sum(AA2:AA4)</f>
+      </c>
+      <c r="AB5" s="3" t="str">
+        <f>Sum(AB2:AB4)</f>
+      </c>
+      <c r="AC5" s="3" t="str">
+        <f>Sum(AC2:AC4)</f>
+      </c>
+      <c r="AD5" s="3" t="str">
+        <f>Sum(AD2:AD4)</f>
+      </c>
+      <c r="AE5" s="3" t="str">
+        <f>Sum(AE2:AE4)</f>
+      </c>
+      <c r="AF5" s="3" t="str">
+        <f>Sum(AF2:AF4)</f>
+      </c>
+      <c r="AG5" s="3" t="str">
+        <f>Sum(AG2:AG4)</f>
+      </c>
+      <c r="AH5" s="3" t="str">
+        <f>Sum(AH2:AH4)</f>
+      </c>
+      <c r="AI5" s="3" t="str">
+        <f>Sum(AI2:AI4)</f>
+      </c>
+      <c r="AJ5" s="3" t="str">
+        <f>Sum(AJ2:AJ4)</f>
+      </c>
+      <c r="AK5" s="3" t="str">
+        <f>Sum(AK2:AK4)</f>
+      </c>
+      <c r="AL5" s="3" t="str">
+        <f>Sum(AL2:AL4)</f>
+      </c>
+      <c r="AM5" s="3" t="str">
+        <f>Sum(AM2:AM4)</f>
+      </c>
+      <c r="AN5" s="3" t="str">
+        <f>Sum(AN2:AN4)</f>
+      </c>
+      <c r="AO5" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="M8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" t="s">
+        <v>11</v>
+      </c>
+      <c r="X8" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <f>M9</f>
+      </c>
+      <c r="M9" t="s">
+        <v>53</v>
+      </c>
+      <c r="N9" s="3" t="n">
+        <v>1935465.92775228</v>
+      </c>
+      <c r="O9" s="3" t="n">
+        <v>216207522.55055</v>
+      </c>
+      <c r="P9" s="3" t="n">
+        <v>340370687.705317</v>
+      </c>
+      <c r="Q9" s="3" t="n">
+        <v>416882913.493978</v>
+      </c>
+      <c r="R9" s="3" t="n">
+        <v>335253661.388491</v>
+      </c>
+      <c r="S9" s="3" t="n">
+        <v>400549475.036007</v>
+      </c>
+      <c r="T9" s="3" t="n">
+        <v>535879359.055566</v>
+      </c>
+      <c r="U9" s="3" t="n">
+        <v>480432208.103295</v>
+      </c>
+      <c r="V9" s="3" t="n">
+        <v>462543487.758188</v>
+      </c>
+      <c r="W9" s="3" t="n">
+        <v>608178583.888996</v>
+      </c>
+      <c r="X9" s="3" t="n">
+        <v>1004889158.85416</v>
+      </c>
+      <c r="Y9" s="3" t="n">
+        <v>639501964.181436</v>
+      </c>
+      <c r="Z9" s="3" t="n">
+        <v>582310444.497622</v>
+      </c>
+      <c r="AA9" s="3" t="n">
+        <v>1971643289.77953</v>
+      </c>
+      <c r="AB9" s="3" t="n">
+        <v>1983856005.71238</v>
+      </c>
+      <c r="AC9" s="3" t="n">
+        <v>1211363488.09374</v>
+      </c>
+      <c r="AD9" s="3" t="n">
+        <v>1396562840.19621</v>
+      </c>
+      <c r="AE9" s="3" t="n">
+        <v>820234557.218979</v>
+      </c>
+      <c r="AF9" s="3" t="n">
+        <v>220610702.895332</v>
+      </c>
+      <c r="AG9" s="3" t="n">
+        <v>165023629.656176</v>
+      </c>
+      <c r="AH9" s="3" t="n">
+        <v>106082357.357849</v>
+      </c>
+      <c r="AI9" s="3" t="n">
+        <v>320478392.887676</v>
+      </c>
+      <c r="AJ9" s="3" t="n">
+        <v>63895503.4191863</v>
+      </c>
+      <c r="AK9" s="3" t="n">
+        <v>95565656.6629585</v>
+      </c>
+      <c r="AL9" s="3" t="n">
+        <v>98400731.6499</v>
+      </c>
+      <c r="AM9" s="3" t="n">
+        <v>68525556.2666495</v>
+      </c>
+      <c r="AN9" s="3"/>
+      <c r="AO9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <f>M10</f>
+      </c>
+      <c r="M10" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3" t="n">
+        <v>8486195.7246025</v>
+      </c>
+      <c r="S10" s="3" t="n">
+        <v>12035620.6543827</v>
+      </c>
+      <c r="T10" s="3" t="n">
+        <v>8300699.92327509</v>
+      </c>
+      <c r="U10" s="3" t="n">
+        <v>1625051.23710402</v>
+      </c>
+      <c r="V10" s="3" t="n">
+        <v>1457210.06525962</v>
+      </c>
+      <c r="W10" s="3" t="n">
+        <v>4915082.72397203</v>
+      </c>
+      <c r="X10" s="3" t="n">
+        <v>5960279.90180058</v>
+      </c>
+      <c r="Y10" s="3" t="n">
+        <v>2417960.15283202</v>
+      </c>
+      <c r="Z10" s="3" t="n">
+        <v>4426584.01657639</v>
+      </c>
+      <c r="AA10" s="3" t="n">
+        <v>1927524.19826415</v>
+      </c>
+      <c r="AB10" s="3" t="n">
+        <v>201006338.257226</v>
+      </c>
+      <c r="AC10" s="3" t="n">
+        <v>224937545.790867</v>
+      </c>
+      <c r="AD10" s="3" t="n">
+        <v>292557915.739884</v>
+      </c>
+      <c r="AE10" s="3" t="n">
+        <v>347190190.467209</v>
+      </c>
+      <c r="AF10" s="3" t="n">
+        <v>199399050.122305</v>
+      </c>
+      <c r="AG10" s="3" t="n">
+        <v>280373745.905699</v>
+      </c>
+      <c r="AH10" s="3" t="n">
+        <v>362370683.49338</v>
+      </c>
+      <c r="AI10" s="3" t="n">
+        <v>366626835.51232</v>
+      </c>
+      <c r="AJ10" s="3" t="n">
+        <v>194407477.881543</v>
+      </c>
+      <c r="AK10" s="3" t="n">
+        <v>42831631.4999655</v>
+      </c>
+      <c r="AL10" s="3" t="n">
+        <v>60628596.92</v>
+      </c>
+      <c r="AM10" s="3" t="n">
+        <v>23796991.8219665</v>
+      </c>
+      <c r="AN10" s="3"/>
+      <c r="AO10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <f>M11</f>
+      </c>
+      <c r="M11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3" t="n">
+        <v>133289883.855346</v>
+      </c>
+      <c r="P11" s="3" t="n">
+        <v>259498165.421018</v>
+      </c>
+      <c r="Q11" s="3" t="n">
+        <v>193846964.528585</v>
+      </c>
+      <c r="R11" s="3" t="n">
+        <v>299005351.474911</v>
+      </c>
+      <c r="S11" s="3" t="n">
+        <v>341589231.667151</v>
+      </c>
+      <c r="T11" s="3" t="n">
+        <v>360068682.076464</v>
+      </c>
+      <c r="U11" s="3" t="n">
+        <v>685289110.23292</v>
+      </c>
+      <c r="V11" s="3" t="n">
+        <v>971768941.660519</v>
+      </c>
+      <c r="W11" s="3" t="n">
+        <v>908530351.974399</v>
+      </c>
+      <c r="X11" s="3" t="n">
+        <v>1088588149.15389</v>
+      </c>
+      <c r="Y11" s="3" t="n">
+        <v>1454455834.92184</v>
+      </c>
+      <c r="Z11" s="3" t="n">
+        <v>1351017577.73841</v>
+      </c>
+      <c r="AA11" s="3" t="n">
+        <v>3860008493.28198</v>
+      </c>
+      <c r="AB11" s="3" t="n">
+        <v>4234531976.77199</v>
+      </c>
+      <c r="AC11" s="3" t="n">
+        <v>4331115466.87695</v>
+      </c>
+      <c r="AD11" s="3" t="n">
+        <v>3764749780.14362</v>
+      </c>
+      <c r="AE11" s="3" t="n">
+        <v>3884538000.84322</v>
+      </c>
+      <c r="AF11" s="3" t="n">
+        <v>2738566938.62906</v>
+      </c>
+      <c r="AG11" s="3" t="n">
+        <v>1937965344.62269</v>
+      </c>
+      <c r="AH11" s="3" t="n">
+        <v>1679178382.31685</v>
+      </c>
+      <c r="AI11" s="3" t="n">
+        <v>1528626266.06208</v>
+      </c>
+      <c r="AJ11" s="3" t="n">
+        <v>1581424008.53448</v>
+      </c>
+      <c r="AK11" s="3" t="n">
+        <v>72623321.0913845</v>
+      </c>
+      <c r="AL11" s="3" t="n">
+        <v>182771772.4836</v>
+      </c>
+      <c r="AM11" s="3" t="n">
+        <v>61651577.8517111</v>
+      </c>
+      <c r="AN11" s="3"/>
+      <c r="AO11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <f>M12</f>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+      <c r="AG12" s="3"/>
+      <c r="AH12" s="3"/>
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
+      <c r="AL12" s="3"/>
+      <c r="AM12" s="3"/>
+      <c r="AN12" s="3"/>
+      <c r="AO12" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/Output/PBL/Customer/Air_Force/Air_Force_Contracts.xlsx
+++ b/Output/PBL/Customer/Air_Force/Air_Force_Contracts.xlsx
@@ -188,10 +188,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+  <numFmts count="4">
+    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -227,11 +228,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3635,86 +3637,86 @@
       <c r="M2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="3" t="n">
+      <c r="N2" s="4" t="n">
         <v>1127793</v>
       </c>
-      <c r="O2" s="3" t="n">
+      <c r="O2" s="4" t="n">
         <v>128605130</v>
       </c>
-      <c r="P2" s="3" t="n">
+      <c r="P2" s="4" t="n">
         <v>207367642</v>
       </c>
-      <c r="Q2" s="3" t="n">
+      <c r="Q2" s="4" t="n">
         <v>257977679</v>
       </c>
-      <c r="R2" s="3" t="n">
+      <c r="R2" s="4" t="n">
         <v>211445723</v>
       </c>
-      <c r="S2" s="3" t="n">
+      <c r="S2" s="4" t="n">
         <v>258796896</v>
       </c>
-      <c r="T2" s="3" t="n">
+      <c r="T2" s="4" t="n">
         <v>356770013</v>
       </c>
-      <c r="U2" s="3" t="n">
+      <c r="U2" s="4" t="n">
         <v>330245487</v>
       </c>
-      <c r="V2" s="3" t="n">
+      <c r="V2" s="4" t="n">
         <v>326701888.3015</v>
       </c>
-      <c r="W2" s="3" t="n">
+      <c r="W2" s="4" t="n">
         <v>438484453.0985</v>
       </c>
-      <c r="X2" s="3" t="n">
+      <c r="X2" s="4" t="n">
         <v>731913616.4899</v>
       </c>
-      <c r="Y2" s="3" t="n">
+      <c r="Y2" s="4" t="n">
         <v>469816795.0259</v>
       </c>
-      <c r="Z2" s="3" t="n">
+      <c r="Z2" s="4" t="n">
         <v>436386986.3894</v>
       </c>
-      <c r="AA2" s="3" t="n">
+      <c r="AA2" s="4" t="n">
         <v>1504373359.0538</v>
       </c>
-      <c r="AB2" s="3" t="n">
+      <c r="AB2" s="4" t="n">
         <v>1541157246.5474</v>
       </c>
-      <c r="AC2" s="3" t="n">
+      <c r="AC2" s="4" t="n">
         <v>958214617.9085</v>
       </c>
-      <c r="AD2" s="3" t="n">
+      <c r="AD2" s="4" t="n">
         <v>1116151967.6563</v>
       </c>
-      <c r="AE2" s="3" t="n">
+      <c r="AE2" s="4" t="n">
         <v>660783700.5195</v>
       </c>
-      <c r="AF2" s="3" t="n">
+      <c r="AF2" s="4" t="n">
         <v>180724750.4325</v>
       </c>
-      <c r="AG2" s="3" t="n">
+      <c r="AG2" s="4" t="n">
         <v>138188870.5596</v>
       </c>
-      <c r="AH2" s="3" t="n">
+      <c r="AH2" s="4" t="n">
         <v>90474598.3451</v>
       </c>
-      <c r="AI2" s="3" t="n">
+      <c r="AI2" s="4" t="n">
         <v>276897322.0519</v>
       </c>
-      <c r="AJ2" s="3" t="n">
+      <c r="AJ2" s="4" t="n">
         <v>57106573.4664</v>
       </c>
-      <c r="AK2" s="3" t="n">
+      <c r="AK2" s="4" t="n">
         <v>91385099.5505</v>
       </c>
-      <c r="AL2" s="3" t="n">
+      <c r="AL2" s="4" t="n">
         <v>98400731.6499</v>
       </c>
-      <c r="AM2" s="3" t="n">
+      <c r="AM2" s="4" t="n">
         <v>70355598.95</v>
       </c>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -3723,78 +3725,78 @@
       <c r="M3" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3" t="n">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4" t="n">
         <v>5352275</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="4" t="n">
         <v>7776271</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="4" t="n">
         <v>5526320</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="4" t="n">
         <v>1117048</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="4" t="n">
         <v>1029250.8544</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="4" t="n">
         <v>3543675.1922</v>
       </c>
-      <c r="X3" s="3" t="n">
+      <c r="X3" s="4" t="n">
         <v>4341185.2738</v>
       </c>
-      <c r="Y3" s="3" t="n">
+      <c r="Y3" s="4" t="n">
         <v>1776379.6722</v>
       </c>
-      <c r="Z3" s="3" t="n">
+      <c r="Z3" s="4" t="n">
         <v>3317308.9668</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="4" t="n">
         <v>1470710.279</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="4" t="n">
         <v>156151643.02</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="4" t="n">
         <v>177930445</v>
       </c>
-      <c r="AD3" s="3" t="n">
+      <c r="AD3" s="4" t="n">
         <v>233816255.1</v>
       </c>
-      <c r="AE3" s="3" t="n">
+      <c r="AE3" s="4" t="n">
         <v>279697577.75</v>
       </c>
-      <c r="AF3" s="3" t="n">
+      <c r="AF3" s="4" t="n">
         <v>163348120</v>
       </c>
-      <c r="AG3" s="3" t="n">
+      <c r="AG3" s="4" t="n">
         <v>234781718</v>
       </c>
-      <c r="AH3" s="3" t="n">
+      <c r="AH3" s="4" t="n">
         <v>309055557</v>
       </c>
-      <c r="AI3" s="3" t="n">
+      <c r="AI3" s="4" t="n">
         <v>316770151.12</v>
       </c>
-      <c r="AJ3" s="3" t="n">
+      <c r="AJ3" s="4" t="n">
         <v>173751583.82</v>
       </c>
-      <c r="AK3" s="3" t="n">
+      <c r="AK3" s="4" t="n">
         <v>40957944.99</v>
       </c>
-      <c r="AL3" s="3" t="n">
+      <c r="AL3" s="4" t="n">
         <v>60628596.92</v>
       </c>
-      <c r="AM3" s="3" t="n">
+      <c r="AM3" s="4" t="n">
         <v>24432514</v>
       </c>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -3803,84 +3805,84 @@
       <c r="M4" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="n">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4" t="n">
         <v>79283841</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="4" t="n">
         <v>158096818</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="4" t="n">
         <v>119957399</v>
       </c>
-      <c r="R4" s="3" t="n">
+      <c r="R4" s="4" t="n">
         <v>188583780</v>
       </c>
-      <c r="S4" s="3" t="n">
+      <c r="S4" s="4" t="n">
         <v>220702406</v>
       </c>
-      <c r="T4" s="3" t="n">
+      <c r="T4" s="4" t="n">
         <v>239721322</v>
       </c>
-      <c r="U4" s="3" t="n">
+      <c r="U4" s="4" t="n">
         <v>471062581</v>
       </c>
-      <c r="V4" s="3" t="n">
+      <c r="V4" s="4" t="n">
         <v>686375998.4428</v>
       </c>
-      <c r="W4" s="3" t="n">
+      <c r="W4" s="4" t="n">
         <v>655032000.5704</v>
       </c>
-      <c r="X4" s="3" t="n">
+      <c r="X4" s="4" t="n">
         <v>792875992.4366</v>
       </c>
-      <c r="Y4" s="3" t="n">
+      <c r="Y4" s="4" t="n">
         <v>1068531165.0987</v>
       </c>
-      <c r="Z4" s="3" t="n">
+      <c r="Z4" s="4" t="n">
         <v>1012460784.242</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="4" t="n">
         <v>2945205135.7952</v>
       </c>
-      <c r="AB4" s="3" t="n">
+      <c r="AB4" s="4" t="n">
         <v>3289593409.475</v>
       </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AC4" s="4" t="n">
         <v>3426005648.1824</v>
       </c>
-      <c r="AD4" s="3" t="n">
+      <c r="AD4" s="4" t="n">
         <v>3008839096.8863</v>
       </c>
-      <c r="AE4" s="3" t="n">
+      <c r="AE4" s="4" t="n">
         <v>3129396795.6053</v>
       </c>
-      <c r="AF4" s="3" t="n">
+      <c r="AF4" s="4" t="n">
         <v>2243439778.8998</v>
       </c>
-      <c r="AG4" s="3" t="n">
+      <c r="AG4" s="4" t="n">
         <v>1622829668.1816</v>
       </c>
-      <c r="AH4" s="3" t="n">
+      <c r="AH4" s="4" t="n">
         <v>1432123054.896</v>
       </c>
-      <c r="AI4" s="3" t="n">
+      <c r="AI4" s="4" t="n">
         <v>1320752128.3319</v>
       </c>
-      <c r="AJ4" s="3" t="n">
+      <c r="AJ4" s="4" t="n">
         <v>1413396897.9386</v>
       </c>
-      <c r="AK4" s="3" t="n">
+      <c r="AK4" s="4" t="n">
         <v>69446385.4419</v>
       </c>
-      <c r="AL4" s="3" t="n">
+      <c r="AL4" s="4" t="n">
         <v>182771772.4836</v>
       </c>
-      <c r="AM4" s="3" t="n">
+      <c r="AM4" s="4" t="n">
         <v>63298044.15</v>
       </c>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
+      <c r="AN4" s="4"/>
+      <c r="AO4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -3889,88 +3891,88 @@
       <c r="M5" t="s">
         <v>35</v>
       </c>
-      <c r="N5" s="3" t="str">
+      <c r="N5" s="4" t="str">
         <f>Sum(N2:N4)</f>
       </c>
-      <c r="O5" s="3" t="str">
+      <c r="O5" s="4" t="str">
         <f>Sum(O2:O4)</f>
       </c>
-      <c r="P5" s="3" t="str">
+      <c r="P5" s="4" t="str">
         <f>Sum(P2:P4)</f>
       </c>
-      <c r="Q5" s="3" t="str">
+      <c r="Q5" s="4" t="str">
         <f>Sum(Q2:Q4)</f>
       </c>
-      <c r="R5" s="3" t="str">
+      <c r="R5" s="4" t="str">
         <f>Sum(R2:R4)</f>
       </c>
-      <c r="S5" s="3" t="str">
+      <c r="S5" s="4" t="str">
         <f>Sum(S2:S4)</f>
       </c>
-      <c r="T5" s="3" t="str">
+      <c r="T5" s="4" t="str">
         <f>Sum(T2:T4)</f>
       </c>
-      <c r="U5" s="3" t="str">
+      <c r="U5" s="4" t="str">
         <f>Sum(U2:U4)</f>
       </c>
-      <c r="V5" s="3" t="str">
+      <c r="V5" s="4" t="str">
         <f>Sum(V2:V4)</f>
       </c>
-      <c r="W5" s="3" t="str">
+      <c r="W5" s="4" t="str">
         <f>Sum(W2:W4)</f>
       </c>
-      <c r="X5" s="3" t="str">
+      <c r="X5" s="4" t="str">
         <f>Sum(X2:X4)</f>
       </c>
-      <c r="Y5" s="3" t="str">
+      <c r="Y5" s="4" t="str">
         <f>Sum(Y2:Y4)</f>
       </c>
-      <c r="Z5" s="3" t="str">
+      <c r="Z5" s="4" t="str">
         <f>Sum(Z2:Z4)</f>
       </c>
-      <c r="AA5" s="3" t="str">
+      <c r="AA5" s="4" t="str">
         <f>Sum(AA2:AA4)</f>
       </c>
-      <c r="AB5" s="3" t="str">
+      <c r="AB5" s="4" t="str">
         <f>Sum(AB2:AB4)</f>
       </c>
-      <c r="AC5" s="3" t="str">
+      <c r="AC5" s="4" t="str">
         <f>Sum(AC2:AC4)</f>
       </c>
-      <c r="AD5" s="3" t="str">
+      <c r="AD5" s="4" t="str">
         <f>Sum(AD2:AD4)</f>
       </c>
-      <c r="AE5" s="3" t="str">
+      <c r="AE5" s="4" t="str">
         <f>Sum(AE2:AE4)</f>
       </c>
-      <c r="AF5" s="3" t="str">
+      <c r="AF5" s="4" t="str">
         <f>Sum(AF2:AF4)</f>
       </c>
-      <c r="AG5" s="3" t="str">
+      <c r="AG5" s="4" t="str">
         <f>Sum(AG2:AG4)</f>
       </c>
-      <c r="AH5" s="3" t="str">
+      <c r="AH5" s="4" t="str">
         <f>Sum(AH2:AH4)</f>
       </c>
-      <c r="AI5" s="3" t="str">
+      <c r="AI5" s="4" t="str">
         <f>Sum(AI2:AI4)</f>
       </c>
-      <c r="AJ5" s="3" t="str">
+      <c r="AJ5" s="4" t="str">
         <f>Sum(AJ2:AJ4)</f>
       </c>
-      <c r="AK5" s="3" t="str">
+      <c r="AK5" s="4" t="str">
         <f>Sum(AK2:AK4)</f>
       </c>
-      <c r="AL5" s="3" t="str">
+      <c r="AL5" s="4" t="str">
         <f>Sum(AL2:AL4)</f>
       </c>
-      <c r="AM5" s="3" t="str">
+      <c r="AM5" s="4" t="str">
         <f>Sum(AM2:AM4)</f>
       </c>
-      <c r="AN5" s="3" t="str">
+      <c r="AN5" s="4" t="str">
         <f>Sum(AN2:AN4)</f>
       </c>
-      <c r="AO5" s="3"/>
+      <c r="AO5" s="4"/>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -4065,86 +4067,86 @@
       <c r="M9" t="s">
         <v>53</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="4" t="n">
         <v>1935465.92775228</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="4" t="n">
         <v>216207522.55055</v>
       </c>
-      <c r="P9" s="3" t="n">
+      <c r="P9" s="4" t="n">
         <v>340370687.705317</v>
       </c>
-      <c r="Q9" s="3" t="n">
+      <c r="Q9" s="4" t="n">
         <v>416882913.493978</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="4" t="n">
         <v>335253661.388491</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="4" t="n">
         <v>400549475.036007</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="4" t="n">
         <v>535879359.055566</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="4" t="n">
         <v>480432208.103295</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="4" t="n">
         <v>462543487.758188</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="4" t="n">
         <v>608178583.888996</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="4" t="n">
         <v>1004889158.85416</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="4" t="n">
         <v>639501964.181436</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="4" t="n">
         <v>582310444.497622</v>
       </c>
-      <c r="AA9" s="3" t="n">
+      <c r="AA9" s="4" t="n">
         <v>1971643289.77953</v>
       </c>
-      <c r="AB9" s="3" t="n">
+      <c r="AB9" s="4" t="n">
         <v>1983856005.71238</v>
       </c>
-      <c r="AC9" s="3" t="n">
+      <c r="AC9" s="4" t="n">
         <v>1211363488.09374</v>
       </c>
-      <c r="AD9" s="3" t="n">
+      <c r="AD9" s="4" t="n">
         <v>1396562840.19621</v>
       </c>
-      <c r="AE9" s="3" t="n">
+      <c r="AE9" s="4" t="n">
         <v>820234557.218979</v>
       </c>
-      <c r="AF9" s="3" t="n">
+      <c r="AF9" s="4" t="n">
         <v>220610702.895332</v>
       </c>
-      <c r="AG9" s="3" t="n">
+      <c r="AG9" s="4" t="n">
         <v>165023629.656176</v>
       </c>
-      <c r="AH9" s="3" t="n">
+      <c r="AH9" s="4" t="n">
         <v>106082357.357849</v>
       </c>
-      <c r="AI9" s="3" t="n">
+      <c r="AI9" s="4" t="n">
         <v>320478392.887676</v>
       </c>
-      <c r="AJ9" s="3" t="n">
+      <c r="AJ9" s="4" t="n">
         <v>63895503.4191863</v>
       </c>
-      <c r="AK9" s="3" t="n">
+      <c r="AK9" s="4" t="n">
         <v>95565656.6629585</v>
       </c>
-      <c r="AL9" s="3" t="n">
+      <c r="AL9" s="4" t="n">
         <v>98400731.6499</v>
       </c>
-      <c r="AM9" s="3" t="n">
+      <c r="AM9" s="4" t="n">
         <v>68525556.2666495</v>
       </c>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
+      <c r="AN9" s="4"/>
+      <c r="AO9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -4153,78 +4155,78 @@
       <c r="M10" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3" t="n">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4" t="n">
         <v>8486195.7246025</v>
       </c>
-      <c r="S10" s="3" t="n">
+      <c r="S10" s="4" t="n">
         <v>12035620.6543827</v>
       </c>
-      <c r="T10" s="3" t="n">
+      <c r="T10" s="4" t="n">
         <v>8300699.92327509</v>
       </c>
-      <c r="U10" s="3" t="n">
+      <c r="U10" s="4" t="n">
         <v>1625051.23710402</v>
       </c>
-      <c r="V10" s="3" t="n">
+      <c r="V10" s="4" t="n">
         <v>1457210.06525962</v>
       </c>
-      <c r="W10" s="3" t="n">
+      <c r="W10" s="4" t="n">
         <v>4915082.72397203</v>
       </c>
-      <c r="X10" s="3" t="n">
+      <c r="X10" s="4" t="n">
         <v>5960279.90180058</v>
       </c>
-      <c r="Y10" s="3" t="n">
+      <c r="Y10" s="4" t="n">
         <v>2417960.15283202</v>
       </c>
-      <c r="Z10" s="3" t="n">
+      <c r="Z10" s="4" t="n">
         <v>4426584.01657639</v>
       </c>
-      <c r="AA10" s="3" t="n">
+      <c r="AA10" s="4" t="n">
         <v>1927524.19826415</v>
       </c>
-      <c r="AB10" s="3" t="n">
+      <c r="AB10" s="4" t="n">
         <v>201006338.257226</v>
       </c>
-      <c r="AC10" s="3" t="n">
+      <c r="AC10" s="4" t="n">
         <v>224937545.790867</v>
       </c>
-      <c r="AD10" s="3" t="n">
+      <c r="AD10" s="4" t="n">
         <v>292557915.739884</v>
       </c>
-      <c r="AE10" s="3" t="n">
+      <c r="AE10" s="4" t="n">
         <v>347190190.467209</v>
       </c>
-      <c r="AF10" s="3" t="n">
+      <c r="AF10" s="4" t="n">
         <v>199399050.122305</v>
       </c>
-      <c r="AG10" s="3" t="n">
+      <c r="AG10" s="4" t="n">
         <v>280373745.905699</v>
       </c>
-      <c r="AH10" s="3" t="n">
+      <c r="AH10" s="4" t="n">
         <v>362370683.49338</v>
       </c>
-      <c r="AI10" s="3" t="n">
+      <c r="AI10" s="4" t="n">
         <v>366626835.51232</v>
       </c>
-      <c r="AJ10" s="3" t="n">
+      <c r="AJ10" s="4" t="n">
         <v>194407477.881543</v>
       </c>
-      <c r="AK10" s="3" t="n">
+      <c r="AK10" s="4" t="n">
         <v>42831631.4999655</v>
       </c>
-      <c r="AL10" s="3" t="n">
+      <c r="AL10" s="4" t="n">
         <v>60628596.92</v>
       </c>
-      <c r="AM10" s="3" t="n">
+      <c r="AM10" s="4" t="n">
         <v>23796991.8219665</v>
       </c>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
+      <c r="AN10" s="4"/>
+      <c r="AO10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -4233,117 +4235,117 @@
       <c r="M11" t="s">
         <v>55</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3" t="n">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4" t="n">
         <v>133289883.855346</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="4" t="n">
         <v>259498165.421018</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="4" t="n">
         <v>193846964.528585</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="4" t="n">
         <v>299005351.474911</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="S11" s="4" t="n">
         <v>341589231.667151</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="4" t="n">
         <v>360068682.076464</v>
       </c>
-      <c r="U11" s="3" t="n">
+      <c r="U11" s="4" t="n">
         <v>685289110.23292</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="4" t="n">
         <v>971768941.660519</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="4" t="n">
         <v>908530351.974399</v>
       </c>
-      <c r="X11" s="3" t="n">
+      <c r="X11" s="4" t="n">
         <v>1088588149.15389</v>
       </c>
-      <c r="Y11" s="3" t="n">
+      <c r="Y11" s="4" t="n">
         <v>1454455834.92184</v>
       </c>
-      <c r="Z11" s="3" t="n">
+      <c r="Z11" s="4" t="n">
         <v>1351017577.73841</v>
       </c>
-      <c r="AA11" s="3" t="n">
+      <c r="AA11" s="4" t="n">
         <v>3860008493.28198</v>
       </c>
-      <c r="AB11" s="3" t="n">
+      <c r="AB11" s="4" t="n">
         <v>4234531976.77199</v>
       </c>
-      <c r="AC11" s="3" t="n">
+      <c r="AC11" s="4" t="n">
         <v>4331115466.87695</v>
       </c>
-      <c r="AD11" s="3" t="n">
+      <c r="AD11" s="4" t="n">
         <v>3764749780.14362</v>
       </c>
-      <c r="AE11" s="3" t="n">
+      <c r="AE11" s="4" t="n">
         <v>3884538000.84322</v>
       </c>
-      <c r="AF11" s="3" t="n">
+      <c r="AF11" s="4" t="n">
         <v>2738566938.62906</v>
       </c>
-      <c r="AG11" s="3" t="n">
+      <c r="AG11" s="4" t="n">
         <v>1937965344.62269</v>
       </c>
-      <c r="AH11" s="3" t="n">
+      <c r="AH11" s="4" t="n">
         <v>1679178382.31685</v>
       </c>
-      <c r="AI11" s="3" t="n">
+      <c r="AI11" s="4" t="n">
         <v>1528626266.06208</v>
       </c>
-      <c r="AJ11" s="3" t="n">
+      <c r="AJ11" s="4" t="n">
         <v>1581424008.53448</v>
       </c>
-      <c r="AK11" s="3" t="n">
+      <c r="AK11" s="4" t="n">
         <v>72623321.0913845</v>
       </c>
-      <c r="AL11" s="3" t="n">
+      <c r="AL11" s="4" t="n">
         <v>182771772.4836</v>
       </c>
-      <c r="AM11" s="3" t="n">
+      <c r="AM11" s="4" t="n">
         <v>61651577.8517111</v>
       </c>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
+      <c r="AN11" s="4"/>
+      <c r="AO11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <f>M12</f>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Output/PBL/Customer/Air_Force/Air_Force_Contracts.xlsx
+++ b/Output/PBL/Customer/Air_Force/Air_Force_Contracts.xlsx
@@ -189,10 +189,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="172" formatCode="0.00,,,&quot;B&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="174" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="175" formatCode="0.00,,,&quot;B&quot;"/>
     <numFmt numFmtId="173" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -230,10 +230,10 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
